--- a/natmiOut/OldD4/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H2">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I2">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J2">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N2">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O2">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P2">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q2">
-        <v>15.78080299839883</v>
+        <v>20.76434642760378</v>
       </c>
       <c r="R2">
-        <v>15.78080299839883</v>
+        <v>186.879117848434</v>
       </c>
       <c r="S2">
-        <v>0.1499977002038899</v>
+        <v>0.1054689855389152</v>
       </c>
       <c r="T2">
-        <v>0.1499977002038899</v>
+        <v>0.12111051299096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H3">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I3">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J3">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N3">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P3">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q3">
-        <v>34.38732398910465</v>
+        <v>46.81522094496744</v>
       </c>
       <c r="R3">
-        <v>34.38732398910465</v>
+        <v>421.3369885047071</v>
       </c>
       <c r="S3">
-        <v>0.3268540590143035</v>
+        <v>0.2377899963314997</v>
       </c>
       <c r="T3">
-        <v>0.3268540590143035</v>
+        <v>0.2730553279968777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H4">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I4">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J4">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N4">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O4">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P4">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q4">
-        <v>6.113359357191566</v>
+        <v>9.374843656382112</v>
       </c>
       <c r="R4">
-        <v>6.113359357191566</v>
+        <v>84.373592907439</v>
       </c>
       <c r="S4">
-        <v>0.05810793304952264</v>
+        <v>0.04761793266510528</v>
       </c>
       <c r="T4">
-        <v>0.05810793304952264</v>
+        <v>0.05467988739222311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H5">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I5">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J5">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N5">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O5">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P5">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q5">
-        <v>9.340223787975196</v>
+        <v>12.07670278843722</v>
       </c>
       <c r="R5">
-        <v>9.340223787975196</v>
+        <v>108.690325095935</v>
       </c>
       <c r="S5">
-        <v>0.08877951823668891</v>
+        <v>0.06134156912630793</v>
       </c>
       <c r="T5">
-        <v>0.08877951823668891</v>
+        <v>0.07043880119446536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H6">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I6">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J6">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.12039000669167</v>
+        <v>8.1511595</v>
       </c>
       <c r="N6">
-        <v>8.12039000669167</v>
+        <v>16.302319</v>
       </c>
       <c r="O6">
-        <v>0.132026049790293</v>
+        <v>0.1267029501450486</v>
       </c>
       <c r="P6">
-        <v>0.132026049790293</v>
+        <v>0.08819342236226138</v>
       </c>
       <c r="Q6">
-        <v>9.981607359537561</v>
+        <v>12.91714517670317</v>
       </c>
       <c r="R6">
-        <v>9.981607359537561</v>
+        <v>77.50287106021901</v>
       </c>
       <c r="S6">
-        <v>0.09487591654371252</v>
+        <v>0.0656104540827097</v>
       </c>
       <c r="T6">
-        <v>0.09487591654371252</v>
+        <v>0.05022718739494526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H7">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I7">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J7">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N7">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O7">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P7">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q7">
-        <v>6.179217608490188</v>
+        <v>8.321298833766891</v>
       </c>
       <c r="R7">
-        <v>6.179217608490188</v>
+        <v>74.891689503902</v>
       </c>
       <c r="S7">
-        <v>0.05873392060131234</v>
+        <v>0.04226662993817294</v>
       </c>
       <c r="T7">
-        <v>0.05873392060131234</v>
+        <v>0.04853496227402742</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H8">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I8">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J8">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N8">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P8">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q8">
-        <v>13.46488882244408</v>
+        <v>18.76117049049122</v>
       </c>
       <c r="R8">
-        <v>13.46488882244408</v>
+        <v>168.850534414421</v>
       </c>
       <c r="S8">
-        <v>0.1279847645948435</v>
+        <v>0.09529419218917778</v>
       </c>
       <c r="T8">
-        <v>0.1279847645948435</v>
+        <v>0.1094267517803335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H9">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I9">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J9">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N9">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O9">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P9">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q9">
-        <v>2.393780455330393</v>
+        <v>3.756962727268556</v>
       </c>
       <c r="R9">
-        <v>2.393780455330393</v>
+        <v>33.812664545417</v>
       </c>
       <c r="S9">
-        <v>0.0227530603562449</v>
+        <v>0.01908285670989248</v>
       </c>
       <c r="T9">
-        <v>0.0227530603562449</v>
+        <v>0.02191293064647252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H10">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I10">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J10">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N10">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O10">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P10">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q10">
-        <v>3.657309156178632</v>
+        <v>4.839731083256111</v>
       </c>
       <c r="R10">
-        <v>3.657309156178632</v>
+        <v>43.55757974930499</v>
       </c>
       <c r="S10">
-        <v>0.03476299415290117</v>
+        <v>0.02458259543163876</v>
       </c>
       <c r="T10">
-        <v>0.03476299415290117</v>
+        <v>0.0282283054886926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6350676666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.905203</v>
+      </c>
+      <c r="I11">
+        <v>0.2075196226747617</v>
+      </c>
+      <c r="J11">
+        <v>0.2282314640991825</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.1511595</v>
+      </c>
+      <c r="N11">
+        <v>16.302319</v>
+      </c>
+      <c r="O11">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P11">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q11">
+        <v>5.176537844292834</v>
+      </c>
+      <c r="R11">
+        <v>31.059227065757</v>
+      </c>
+      <c r="S11">
+        <v>0.02629334840587963</v>
+      </c>
+      <c r="T11">
+        <v>0.0201285139096565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.022067</v>
+      </c>
+      <c r="I12">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J12">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.10301133333333</v>
+      </c>
+      <c r="N12">
+        <v>39.309034</v>
+      </c>
+      <c r="O12">
+        <v>0.2036753411238414</v>
+      </c>
+      <c r="P12">
+        <v>0.2126567538160978</v>
+      </c>
+      <c r="Q12">
+        <v>0.09638138369755557</v>
+      </c>
+      <c r="R12">
+        <v>0.8674324532780001</v>
+      </c>
+      <c r="S12">
+        <v>0.0004895529362727554</v>
+      </c>
+      <c r="T12">
+        <v>0.0005621558503219673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.022067</v>
+      </c>
+      <c r="I13">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J13">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N13">
+        <v>88.626007</v>
+      </c>
+      <c r="O13">
+        <v>0.4592056932299318</v>
+      </c>
+      <c r="P13">
+        <v>0.479455154057023</v>
+      </c>
+      <c r="Q13">
+        <v>0.2173011218298889</v>
+      </c>
+      <c r="R13">
+        <v>1.955710096469</v>
+      </c>
+      <c r="S13">
+        <v>0.001103744293410511</v>
+      </c>
+      <c r="T13">
+        <v>0.001267434562897822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.022067</v>
+      </c>
+      <c r="I14">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J14">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.915846333333334</v>
+      </c>
+      <c r="N14">
+        <v>17.747539</v>
+      </c>
+      <c r="O14">
+        <v>0.0919568784095198</v>
+      </c>
+      <c r="P14">
+        <v>0.09601187431786275</v>
+      </c>
+      <c r="Q14">
+        <v>0.04351499367922222</v>
+      </c>
+      <c r="R14">
+        <v>0.391634943113</v>
+      </c>
+      <c r="S14">
+        <v>0.0002210270501448914</v>
+      </c>
+      <c r="T14">
+        <v>0.0002538063610941769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.022067</v>
+      </c>
+      <c r="I15">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J15">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.620811666666666</v>
+      </c>
+      <c r="N15">
+        <v>22.862435</v>
+      </c>
+      <c r="O15">
+        <v>0.1184591370916581</v>
+      </c>
+      <c r="P15">
+        <v>0.123682795446755</v>
+      </c>
+      <c r="Q15">
+        <v>0.05605615034944444</v>
+      </c>
+      <c r="R15">
+        <v>0.504505353145</v>
+      </c>
+      <c r="S15">
+        <v>0.0002847277342046871</v>
+      </c>
+      <c r="T15">
+        <v>0.0003269541446339206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.022067</v>
+      </c>
+      <c r="I16">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J16">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.1511595</v>
+      </c>
+      <c r="N16">
+        <v>16.302319</v>
+      </c>
+      <c r="O16">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P16">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q16">
+        <v>0.05995721222883334</v>
+      </c>
+      <c r="R16">
+        <v>0.359743273373</v>
+      </c>
+      <c r="S16">
+        <v>0.000304542518184438</v>
+      </c>
+      <c r="T16">
+        <v>0.0002331383671159399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.833154</v>
+      </c>
+      <c r="H17">
+        <v>1.666308</v>
+      </c>
+      <c r="I17">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J17">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.10301133333333</v>
+      </c>
+      <c r="N17">
+        <v>39.309034</v>
+      </c>
+      <c r="O17">
+        <v>0.2036753411238414</v>
+      </c>
+      <c r="P17">
+        <v>0.2126567538160978</v>
+      </c>
+      <c r="Q17">
+        <v>10.916826304412</v>
+      </c>
+      <c r="R17">
+        <v>65.500957826472</v>
+      </c>
+      <c r="S17">
+        <v>0.05545017271048051</v>
+      </c>
+      <c r="T17">
+        <v>0.04244912270078836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.481313436333332</v>
-      </c>
-      <c r="H11">
-        <v>0.481313436333332</v>
-      </c>
-      <c r="I11">
-        <v>0.2813848729518825</v>
-      </c>
-      <c r="J11">
-        <v>0.2813848729518825</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.12039000669167</v>
-      </c>
-      <c r="N11">
-        <v>8.12039000669167</v>
-      </c>
-      <c r="O11">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="P11">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="Q11">
-        <v>3.908452818487616</v>
-      </c>
-      <c r="R11">
-        <v>3.908452818487616</v>
-      </c>
-      <c r="S11">
-        <v>0.03715013324658051</v>
-      </c>
-      <c r="T11">
-        <v>0.03715013324658051</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.833154</v>
+      </c>
+      <c r="H18">
+        <v>1.666308</v>
+      </c>
+      <c r="I18">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J18">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N18">
+        <v>88.626007</v>
+      </c>
+      <c r="O18">
+        <v>0.4592056932299318</v>
+      </c>
+      <c r="P18">
+        <v>0.479455154057023</v>
+      </c>
+      <c r="Q18">
+        <v>24.613037412026</v>
+      </c>
+      <c r="R18">
+        <v>147.678224472156</v>
+      </c>
+      <c r="S18">
+        <v>0.1250177604158437</v>
+      </c>
+      <c r="T18">
+        <v>0.09570563971691412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.833154</v>
+      </c>
+      <c r="H19">
+        <v>1.666308</v>
+      </c>
+      <c r="I19">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J19">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.915846333333334</v>
+      </c>
+      <c r="N19">
+        <v>17.747539</v>
+      </c>
+      <c r="O19">
+        <v>0.0919568784095198</v>
+      </c>
+      <c r="P19">
+        <v>0.09601187431786275</v>
+      </c>
+      <c r="Q19">
+        <v>4.928811036002</v>
+      </c>
+      <c r="R19">
+        <v>29.572866216012</v>
+      </c>
+      <c r="S19">
+        <v>0.02503506198437714</v>
+      </c>
+      <c r="T19">
+        <v>0.01916524991807295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.833154</v>
+      </c>
+      <c r="H20">
+        <v>1.666308</v>
+      </c>
+      <c r="I20">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J20">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.620811666666666</v>
+      </c>
+      <c r="N20">
+        <v>22.862435</v>
+      </c>
+      <c r="O20">
+        <v>0.1184591370916581</v>
+      </c>
+      <c r="P20">
+        <v>0.123682795446755</v>
+      </c>
+      <c r="Q20">
+        <v>6.349309723329998</v>
+      </c>
+      <c r="R20">
+        <v>38.09585833997999</v>
+      </c>
+      <c r="S20">
+        <v>0.03225024479950676</v>
+      </c>
+      <c r="T20">
+        <v>0.02468873461896312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.833154</v>
+      </c>
+      <c r="H21">
+        <v>1.666308</v>
+      </c>
+      <c r="I21">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J21">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.1511595</v>
+      </c>
+      <c r="N21">
+        <v>16.302319</v>
+      </c>
+      <c r="O21">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P21">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q21">
+        <v>6.791171142063</v>
+      </c>
+      <c r="R21">
+        <v>27.164684568252</v>
+      </c>
+      <c r="S21">
+        <v>0.03449460513827488</v>
+      </c>
+      <c r="T21">
+        <v>0.01760458269054369</v>
       </c>
     </row>
   </sheetData>
